--- a/code/backend/REAccess.Mobile.Api/DataFiles/mobile_data_20220318.xlsx
+++ b/code/backend/REAccess.Mobile.Api/DataFiles/mobile_data_20220318.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7092" tabRatio="866" firstSheet="13" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7092" tabRatio="866" firstSheet="13" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="指引说明" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="1093">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -10942,7 +10942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -12140,8 +12140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -12523,9 +12523,7 @@
       <c r="L10" s="62" t="s">
         <v>728</v>
       </c>
-      <c r="M10" s="63" t="s">
-        <v>56</v>
-      </c>
+      <c r="M10" s="63"/>
       <c r="N10" s="60"/>
       <c r="O10" s="61"/>
     </row>

--- a/code/backend/REAccess.Mobile.Api/DataFiles/mobile_data_20220318.xlsx
+++ b/code/backend/REAccess.Mobile.Api/DataFiles/mobile_data_20220318.xlsx
@@ -43,7 +43,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">指标data!$A$1:$H$1</definedName>
     <definedName name="省与直辖市">[1]省市分类!$A$1:$AH$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="1148">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -2213,15 +2213,6 @@
     <t>淄博市人民政府办公室</t>
   </si>
   <si>
-    <t>《关于组织申报2021年度氢能补贴扶持资金项目的通知》</t>
-  </si>
-  <si>
-    <t>上海市青浦经委</t>
-  </si>
-  <si>
-    <t>氢能及燃料电池、氢农业、氢医学生产、研发和经营，加氢站</t>
-  </si>
-  <si>
     <t>《广州市黄埔区广州开发区促进氢能产业发展办法》</t>
   </si>
   <si>
@@ -2440,47 +2431,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2021年“GDP增速”全国No.1：&lt;div&gt;宜昌&lt;/div&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年“购房负担”全国最低：&lt;div&gt;大庆&lt;/div&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年“人均GDP”全国No.1：&lt;div&gt;克拉玛依&lt;/div&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年产业用地交易“最火爆”城市：&lt;div&gt;重庆&lt;/div&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年上市公司最青睐投资目的地：&lt;div&gt;苏州&lt;/div&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020年“二三甲医院数量”全国No1：&lt;div&gt;沈阳&lt;/div&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>shutterstock_131733137_lo.png</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ind_man_glb_ho_2279_lo.png</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年A股披露最大手笔投资：&lt;div&gt;中国移动北京项目&lt;/div&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年产业用地成交金额No.1：&lt;div&gt;裕龙石化&lt;/div&gt;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家级经开区“最热门”主导产业：&lt;div&gt;高端装备&lt;/div&gt;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3195,9 +3150,6 @@
     <t>加氢站、氢燃料电池公共服务用车、氢燃料电池车辆、氢燃料电池及关键零部件、氢储能设施等</t>
   </si>
   <si>
-    <t>2021年7月16日</t>
-  </si>
-  <si>
     <t>广州市黄埔区人民政府、广州开发区管理委员会</t>
   </si>
   <si>
@@ -3536,6 +3488,238 @@
   </si>
   <si>
     <t>165条</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>舟山市普陀区</t>
+  </si>
+  <si>
+    <t>舟山市普陀区人民政府</t>
+  </si>
+  <si>
+    <t>氢能装备制造企业；燃料电池电堆、关键材料、零部件研发制造、燃料电池制造企业；集聚研发中心和检测、认证中心；加氢站</t>
+  </si>
+  <si>
+    <t>2021年1月26日</t>
+  </si>
+  <si>
+    <t>2025年12 月31 日</t>
+  </si>
+  <si>
+    <t>《关于加快新旧动能转换推动氢能产业强势发展的若干意见》</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年“GDP增速”全国No.1：&lt;span&gt;宜昌&lt;/span&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年“购房负担”全国最低：&lt;span&gt;大庆&lt;/span&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年“人均GDP”全国No.1：&lt;span&gt;克拉玛依&lt;/span&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年A股披露最大手笔投资：&lt;span&gt;中国移动北京项目&lt;/span&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年产业用地交易“最火爆”城市：&lt;span&gt;重庆&lt;/span&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年上市公司最青睐投资目的地：&lt;span&gt;苏州&lt;/span&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年产业用地成交金额No.1：&lt;span&gt;裕龙石化&lt;/span&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年“二三甲医院数量”全国No1：&lt;span&gt;沈阳&lt;/span&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家级经开区“最热门”主导产业：&lt;span&gt;高端装备&lt;/span&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年，珠海每万人发明专利拥有量93.9个，全国第二；北京、南京分列一、三位，每万人发明专利拥有量分别为156.0个与82.9个。</t>
+  </si>
+  <si>
+    <t>2022年3月28日</t>
+  </si>
+  <si>
+    <t>每万人专利拥有量</t>
+  </si>
+  <si>
+    <t>珠海</t>
+  </si>
+  <si>
+    <t>2020年，A股上市的酒、饮料和精制茶制造业公司净利润率30.32%，全行业第二，仅次于“货币金融服务行业”净利润率32.08%。</t>
+  </si>
+  <si>
+    <t>识 · 趋势</t>
+  </si>
+  <si>
+    <t>2022年3月29日</t>
+  </si>
+  <si>
+    <t>A股上市公司</t>
+  </si>
+  <si>
+    <t>行业净利润率</t>
+  </si>
+  <si>
+    <t>酒和饮料制造业</t>
+  </si>
+  <si>
+    <t>2021年，“化学原料和化学制品制造业”制造业单项冠军企业107家，全行业第一；计算机、通信和其他电子设备制造业与电气机械和器材制造业分列二、三位，制造单项冠军企业数量分别为91家与90家。</t>
+  </si>
+  <si>
+    <t>2022年3月30日</t>
+  </si>
+  <si>
+    <t>制造业单项冠军</t>
+  </si>
+  <si>
+    <t>2020年，上海汽车制造业上市公司营业总收入9119.97亿元，全行业第一；土木工程建筑业、货币金融服务分列二、三位，营业总收入分别为8363.84亿元与4933.30亿元。</t>
+  </si>
+  <si>
+    <t>2022年3月31日</t>
+  </si>
+  <si>
+    <t>营业总收入</t>
+  </si>
+  <si>
+    <t>汽车制造业</t>
+  </si>
+  <si>
+    <t>2021年，重庆GDP总量27894亿元，超出成都7977亿元；成都上市公司数量109家，超出重庆42家。</t>
+  </si>
+  <si>
+    <t>2022年4月1日</t>
+  </si>
+  <si>
+    <t>重庆vs成都</t>
+  </si>
+  <si>
+    <t>重庆VS成都：重庆经济总量大，成都上市公司多</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年，北京吸引上市公司投资总金额2879.6亿元，全国第一。包头、常州分列二、三位，吸引投资金额分别为1414.0亿与700.9亿元。</t>
+  </si>
+  <si>
+    <t>2022年3月25日</t>
+  </si>
+  <si>
+    <t>图片、文字更新</t>
+  </si>
+  <si>
+    <t>2020年，全国畜牧业固定资产投资增速92.1%，全行业第一；卫生与医药制造业分列二、三位，固定资产投资增速分别为29.9%与28.4%。</t>
+  </si>
+  <si>
+    <t>2022年3月24日</t>
+  </si>
+  <si>
+    <t>全企业口径</t>
+  </si>
+  <si>
+    <t>固定资产投资增速</t>
+  </si>
+  <si>
+    <t>畜牧业</t>
+  </si>
+  <si>
+    <t>图片更新</t>
+  </si>
+  <si>
+    <t>2020年，杭州每十万人星巴克数量2.57家，全国第二；上海、北京分列一、三位，每十万人星巴克数量分别为3.50家与1.91家。</t>
+  </si>
+  <si>
+    <t>2022年3月23日</t>
+  </si>
+  <si>
+    <t>每十万人星巴克</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021年，济南GDP总量11432亿元，与青岛存在2704亿元差距；济南GDP增速7.2%，相较青岛慢1.1%；济南第三产业增加值增速9.2%，与青岛持平。 </t>
+  </si>
+  <si>
+    <t>2022年3月22日</t>
+  </si>
+  <si>
+    <t>济南vs青岛</t>
+  </si>
+  <si>
+    <t>济南VS青岛：经济总量赶超青岛在即，三产增速率先追平</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPXM5T_lo.png</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shutterstock_1709621173_lo.png</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>222259255_lo.png</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shutterstock_353861564_lo.png</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shutterstock_428298412_lo.png</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc115fb7df3f5a81df98e4b5b32b1e2.png</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1483075_lo.png</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shutterstock_387283081_lo.png</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shutterstock_1715024182_lo.png</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年“最吸‘上市公司’金”城市：&lt;span&gt;北京&lt;/span&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年上海上市公司分行业营收No.1：汽车制造业</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年制造业单项冠军企业行业聚集No.1：化工业</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年上市公司行业净利润率No.2：酒和饮料制造业</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年“每万人发明专利拥有量”全国No.2：珠海</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年全国固定资产投资增速最快行业：畜牧业</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年“每十万人星巴克数量”全国No.2：杭州</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4250,7 +4434,37 @@
     <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5200,19 +5414,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>310</v>
@@ -5229,16 +5443,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>318</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>310</v>
@@ -5258,16 +5472,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="36" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>318</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>310</v>
@@ -5287,10 +5501,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="36" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>321</v>
@@ -5316,13 +5530,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>350</v>
@@ -5403,10 +5617,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>329</v>
@@ -5461,13 +5675,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="36" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>308</v>
@@ -5519,16 +5733,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="36" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>310</v>
@@ -5548,7 +5762,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="36" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>349</v>
@@ -5635,10 +5849,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="36" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>339</v>
@@ -5664,10 +5878,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="36" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>339</v>
@@ -5693,10 +5907,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="36" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>339</v>
@@ -5780,13 +5994,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="36" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="D24" s="37" t="s">
         <v>335</v>
@@ -5838,19 +6052,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="118" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="B26" s="118" t="s">
         <v>404</v>
       </c>
       <c r="C26" s="118" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="D26" s="116" t="s">
         <v>350</v>
       </c>
       <c r="E26" s="118" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="F26" s="119">
         <v>707.92</v>
@@ -5867,16 +6081,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="118" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="B27" s="118" t="s">
         <v>349</v>
       </c>
       <c r="C27" s="118" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="D27" s="120" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="118" t="s">
         <v>310</v>
@@ -5896,13 +6110,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="118" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="B28" s="118" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="C28" s="118" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="D28" s="120" t="s">
         <v>350</v>
@@ -5925,19 +6139,19 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="118" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="B29" s="118" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="C29" s="118" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="D29" s="120" t="s">
         <v>322</v>
       </c>
       <c r="E29" s="118" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="F29" s="119" t="s">
         <v>310</v>
@@ -5954,19 +6168,19 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="118" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="B30" s="118" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="C30" s="118" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="D30" s="116" t="s">
         <v>314</v>
       </c>
       <c r="E30" s="118" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="F30" s="119" t="s">
         <v>310</v>
@@ -5983,19 +6197,19 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="118" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="B31" s="118" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="C31" s="118" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="D31" s="120" t="s">
         <v>320</v>
       </c>
       <c r="E31" s="118" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="F31" s="119">
         <v>495</v>
@@ -6012,19 +6226,19 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="118" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="B32" s="118" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="C32" s="118" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="D32" s="116" t="s">
         <v>320</v>
       </c>
       <c r="E32" s="118" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="F32" s="119" t="s">
         <v>310</v>
@@ -6041,13 +6255,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="118" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="B33" s="118" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="C33" s="118" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="D33" s="116" t="s">
         <v>336</v>
@@ -6070,16 +6284,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="36" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="E34" s="36" t="s">
         <v>310</v>
@@ -6099,13 +6313,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="36" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>322</v>
@@ -6128,13 +6342,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="36" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>322</v>
@@ -6157,13 +6371,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="36" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>336</v>
@@ -6186,19 +6400,19 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="36" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>320</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="F38" s="36">
         <v>76.23</v>
@@ -6215,13 +6429,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="36" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="D39" s="39" t="s">
         <v>335</v>
@@ -6244,13 +6458,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="36" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>320</v>
@@ -6273,19 +6487,19 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="36" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>314</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="F41" s="38" t="s">
         <v>310</v>
@@ -6338,7 +6552,7 @@
         <v>292</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -6587,19 +6801,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>320</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>310</v>
@@ -6616,19 +6830,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="36" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>320</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>310</v>
@@ -6674,10 +6888,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>329</v>
@@ -6761,19 +6975,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>322</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="F11" s="38">
         <v>3000</v>
@@ -6794,7 +7008,7 @@
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="41" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>322</v>
@@ -6817,7 +7031,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="36" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>376</v>
@@ -6829,7 +7043,7 @@
         <v>322</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>310</v>
@@ -6875,13 +7089,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="36" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>376</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>322</v>
@@ -6991,13 +7205,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="36" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>314</v>
@@ -7136,19 +7350,19 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="36" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="D24" s="39" t="s">
         <v>314</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="F24" s="38" t="s">
         <v>310</v>
@@ -7223,19 +7437,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="36" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>404</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>350</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="F27" s="38">
         <v>707.92</v>
@@ -7252,13 +7466,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="36" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>350</v>
@@ -7310,13 +7524,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="36" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>350</v>
@@ -7339,19 +7553,19 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="36" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>404</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>350</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="F31" s="38" t="s">
         <v>310</v>
@@ -7368,19 +7582,19 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="36" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="D32" s="39" t="s">
         <v>350</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="F32" s="38" t="s">
         <v>310</v>
@@ -7397,13 +7611,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="36" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>350</v>
@@ -7426,13 +7640,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="36" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>335</v>
@@ -7600,13 +7814,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="B40" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="C40" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>335</v>
@@ -7629,13 +7843,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="B41" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="C41" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>335</v>
@@ -7713,7 +7927,7 @@
         <v>292</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -7767,10 +7981,10 @@
         <v>45</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="D4" s="43">
         <v>399</v>
@@ -7915,10 +8129,10 @@
         <v>1124.9931402857301</v>
       </c>
       <c r="J2" s="91" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="K2" s="87" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -7953,7 +8167,7 @@
         <v>446</v>
       </c>
       <c r="K3" s="87" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -8046,7 +8260,7 @@
         <v>44546</v>
       </c>
       <c r="G6" s="87" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="H6" s="90">
         <v>13085</v>
@@ -8058,7 +8272,7 @@
         <v>461</v>
       </c>
       <c r="K6" s="87" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -8256,7 +8470,7 @@
         <v>44559</v>
       </c>
       <c r="G12" s="87" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="H12" s="90">
         <v>17015</v>
@@ -8268,7 +8482,7 @@
         <v>459</v>
       </c>
       <c r="K12" s="87" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -8384,7 +8598,7 @@
         <v>232</v>
       </c>
       <c r="C16" s="87" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="D16" s="88">
         <v>53600.5</v>
@@ -8396,7 +8610,7 @@
         <v>44546</v>
       </c>
       <c r="G16" s="87" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="H16" s="90">
         <v>13242</v>
@@ -8408,7 +8622,7 @@
         <v>459</v>
       </c>
       <c r="K16" s="87" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -8734,7 +8948,7 @@
         <v>430</v>
       </c>
       <c r="C26" s="87" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="D26" s="88">
         <v>204370.65</v>
@@ -8746,7 +8960,7 @@
         <v>44533</v>
       </c>
       <c r="G26" s="87" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="H26" s="90">
         <v>23055</v>
@@ -8755,10 +8969,10 @@
         <v>1128.0974053759676</v>
       </c>
       <c r="J26" s="98" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="K26" s="96" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -8769,7 +8983,7 @@
         <v>430</v>
       </c>
       <c r="C27" s="87" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="D27" s="88">
         <v>166988.34</v>
@@ -8781,7 +8995,7 @@
         <v>44533</v>
       </c>
       <c r="G27" s="87" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="H27" s="90">
         <v>15926</v>
@@ -8790,10 +9004,10 @@
         <v>953.71928363381539</v>
       </c>
       <c r="J27" s="98" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="K27" s="96" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -8804,7 +9018,7 @@
         <v>430</v>
       </c>
       <c r="C28" s="92" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="D28" s="93">
         <v>194641</v>
@@ -8816,7 +9030,7 @@
         <v>44205</v>
       </c>
       <c r="G28" s="92" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="H28" s="94">
         <v>11776</v>
@@ -8828,7 +9042,7 @@
         <v>449</v>
       </c>
       <c r="K28" s="92" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -8839,7 +9053,7 @@
         <v>430</v>
       </c>
       <c r="C29" s="87" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="D29" s="88">
         <v>188777</v>
@@ -8851,7 +9065,7 @@
         <v>44547</v>
       </c>
       <c r="G29" s="87" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="H29" s="90">
         <v>9137</v>
@@ -8863,7 +9077,7 @@
         <v>453</v>
       </c>
       <c r="K29" s="87" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -8874,7 +9088,7 @@
         <v>430</v>
       </c>
       <c r="C30" s="87" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="D30" s="88">
         <v>175748</v>
@@ -8886,7 +9100,7 @@
         <v>44547</v>
       </c>
       <c r="G30" s="87" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="H30" s="90">
         <v>8418</v>
@@ -8898,7 +9112,7 @@
         <v>481</v>
       </c>
       <c r="K30" s="87" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -8909,7 +9123,7 @@
         <v>430</v>
       </c>
       <c r="C31" s="87" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="D31" s="88">
         <v>136770</v>
@@ -8921,7 +9135,7 @@
         <v>44519</v>
       </c>
       <c r="G31" s="87" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="H31" s="90">
         <v>8206</v>
@@ -8933,7 +9147,7 @@
         <v>446</v>
       </c>
       <c r="K31" s="99" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -8944,7 +9158,7 @@
         <v>430</v>
       </c>
       <c r="C32" s="92" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="D32" s="93">
         <v>198252</v>
@@ -8956,7 +9170,7 @@
         <v>44291</v>
       </c>
       <c r="G32" s="92" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="H32" s="94">
         <v>7970</v>
@@ -8979,7 +9193,7 @@
         <v>430</v>
       </c>
       <c r="C33" s="87" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="D33" s="88">
         <v>166848</v>
@@ -8991,7 +9205,7 @@
         <v>44547</v>
       </c>
       <c r="G33" s="87" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="H33" s="90">
         <v>7859</v>
@@ -9003,7 +9217,7 @@
         <v>453</v>
       </c>
       <c r="K33" s="87" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -9049,19 +9263,19 @@
         <v>501</v>
       </c>
       <c r="C35" s="100" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="D35" s="100" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="E35" s="100" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="F35" s="101">
         <v>44250</v>
       </c>
       <c r="G35" s="100" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="H35" s="102">
         <v>40465</v>
@@ -9073,7 +9287,7 @@
         <v>459</v>
       </c>
       <c r="K35" s="100" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -9084,19 +9298,19 @@
         <v>501</v>
       </c>
       <c r="C36" s="100" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="D36" s="100" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="E36" s="100" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="F36" s="101">
         <v>44550</v>
       </c>
       <c r="G36" s="100" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="H36" s="102">
         <v>26897</v>
@@ -9108,7 +9322,7 @@
         <v>459</v>
       </c>
       <c r="K36" s="100" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -9166,7 +9380,7 @@
         <v>44295</v>
       </c>
       <c r="G38" s="92" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="H38" s="94">
         <v>19378</v>
@@ -9189,19 +9403,19 @@
         <v>501</v>
       </c>
       <c r="C39" s="100" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="D39" s="100" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="E39" s="100" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="F39" s="101">
         <v>44393</v>
       </c>
       <c r="G39" s="100" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="H39" s="102">
         <v>17675</v>
@@ -9213,7 +9427,7 @@
         <v>497</v>
       </c>
       <c r="K39" s="100" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -9224,19 +9438,19 @@
         <v>501</v>
       </c>
       <c r="C40" s="100" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="D40" s="100" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="E40" s="100" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="F40" s="101">
         <v>44393</v>
       </c>
       <c r="G40" s="100" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="H40" s="102">
         <v>17256</v>
@@ -9248,7 +9462,7 @@
         <v>443</v>
       </c>
       <c r="K40" s="100" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -9259,19 +9473,19 @@
         <v>501</v>
       </c>
       <c r="C41" s="100" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="D41" s="100" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="E41" s="100" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="F41" s="101">
         <v>44467</v>
       </c>
       <c r="G41" s="100" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="H41" s="102">
         <v>15935</v>
@@ -9283,7 +9497,7 @@
         <v>461</v>
       </c>
       <c r="K41" s="100" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
     </row>
   </sheetData>
@@ -9340,7 +9554,7 @@
         <v>292</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -9368,7 +9582,7 @@
         <v>246</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="C3" s="43">
         <v>854</v>
@@ -9388,7 +9602,7 @@
         <v>271</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="C4" s="43">
         <v>794</v>
@@ -9408,7 +9622,7 @@
         <v>244</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="C5" s="43">
         <v>700</v>
@@ -9425,10 +9639,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="C6" s="43">
         <v>607</v>
@@ -9527,7 +9741,7 @@
         <v>449</v>
       </c>
       <c r="K2" s="92" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -9562,7 +9776,7 @@
         <v>449</v>
       </c>
       <c r="K3" s="92" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -9807,7 +10021,7 @@
         <v>449</v>
       </c>
       <c r="K10" s="92" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -9839,10 +10053,10 @@
         <v>263.12890231419624</v>
       </c>
       <c r="J11" s="124" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="K11" s="92" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -9874,10 +10088,10 @@
         <v>1097.0092988187987</v>
       </c>
       <c r="J12" s="124" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="K12" s="92" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -9888,19 +10102,19 @@
         <v>233</v>
       </c>
       <c r="C13" s="125" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="D13" s="125" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="E13" s="125" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="F13" s="126">
         <v>44467</v>
       </c>
       <c r="G13" s="125" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="H13" s="125">
         <v>13920</v>
@@ -9961,16 +10175,16 @@
         <v>502</v>
       </c>
       <c r="D15" s="125" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="E15" s="125" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="F15" s="126">
         <v>44375</v>
       </c>
       <c r="G15" s="125" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="H15" s="125">
         <v>11113</v>
@@ -9990,10 +10204,10 @@
         <v>549</v>
       </c>
       <c r="B16" s="92" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="D16" s="92">
         <v>628932.77</v>
@@ -10005,7 +10219,7 @@
         <v>44270</v>
       </c>
       <c r="G16" s="92" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="H16" s="94">
         <v>9434</v>
@@ -10025,22 +10239,22 @@
         <v>239</v>
       </c>
       <c r="B17" s="125" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="C17" s="125" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="D17" s="125" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="E17" s="125" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="F17" s="126">
         <v>44415</v>
       </c>
       <c r="G17" s="125" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="H17" s="125">
         <v>9384</v>
@@ -10060,10 +10274,10 @@
         <v>508</v>
       </c>
       <c r="B18" s="92" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="C18" s="92" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="D18" s="92">
         <v>605499</v>
@@ -10075,7 +10289,7 @@
         <v>44282</v>
       </c>
       <c r="G18" s="92" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="H18" s="94">
         <v>18165</v>
@@ -10092,13 +10306,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="92" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="D19" s="93">
         <v>350012</v>
@@ -10110,7 +10324,7 @@
         <v>44546</v>
       </c>
       <c r="G19" s="92" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="H19" s="93">
         <v>13721</v>
@@ -10119,7 +10333,7 @@
         <v>392.01513090979739</v>
       </c>
       <c r="J19" s="124" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="K19" s="92" t="s">
         <v>498</v>
@@ -10130,10 +10344,10 @@
         <v>236</v>
       </c>
       <c r="B20" s="92" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="C20" s="92" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="D20" s="93">
         <v>334769</v>
@@ -10145,7 +10359,7 @@
         <v>44545</v>
       </c>
       <c r="G20" s="92" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="H20" s="92">
         <v>11349</v>
@@ -10154,7 +10368,7 @@
         <v>339.00988442776958</v>
       </c>
       <c r="J20" s="124" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="K20" s="92" t="s">
         <v>498</v>
@@ -10165,10 +10379,10 @@
         <v>238</v>
       </c>
       <c r="B21" s="92" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="C21" s="92" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="D21" s="93">
         <v>69672.67</v>
@@ -10180,7 +10394,7 @@
         <v>44501</v>
       </c>
       <c r="G21" s="92" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="H21" s="93">
         <v>10500</v>
@@ -10189,7 +10403,7 @@
         <v>1507.0471678493159</v>
       </c>
       <c r="J21" s="124" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="K21" s="92" t="s">
         <v>498</v>
@@ -10203,19 +10417,19 @@
         <v>233</v>
       </c>
       <c r="C22" s="125" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="D22" s="125" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="E22" s="125" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="F22" s="126">
         <v>44389</v>
       </c>
       <c r="G22" s="125" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="H22" s="125">
         <v>10066</v>
@@ -10235,10 +10449,10 @@
         <v>238</v>
       </c>
       <c r="B23" s="92" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="C23" s="92" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="D23" s="93">
         <v>54037.17</v>
@@ -10250,7 +10464,7 @@
         <v>44306</v>
       </c>
       <c r="G23" s="92" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="H23" s="94">
         <v>8681</v>
@@ -10273,7 +10487,7 @@
         <v>550</v>
       </c>
       <c r="C24" s="92" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="D24" s="93">
         <v>291961</v>
@@ -10285,7 +10499,7 @@
         <v>44342</v>
       </c>
       <c r="G24" s="92" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="H24" s="94">
         <v>8350</v>
@@ -10305,10 +10519,10 @@
         <v>236</v>
       </c>
       <c r="B25" s="104" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="C25" s="104" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="D25" s="104">
         <v>234438</v>
@@ -10320,7 +10534,7 @@
         <v>44436</v>
       </c>
       <c r="G25" s="104" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="H25" s="106">
         <v>7315</v>
@@ -10340,10 +10554,10 @@
         <v>238</v>
       </c>
       <c r="B26" s="92" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="C26" s="92" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="D26" s="93">
         <v>158457.76</v>
@@ -10355,7 +10569,7 @@
         <v>44253</v>
       </c>
       <c r="G26" s="92" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="H26" s="94">
         <v>23782</v>
@@ -10367,7 +10581,7 @@
         <v>449</v>
       </c>
       <c r="K26" s="92" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -10375,10 +10589,10 @@
         <v>238</v>
       </c>
       <c r="B27" s="92" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="C27" s="92" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="D27" s="93">
         <v>83388.75</v>
@@ -10390,7 +10604,7 @@
         <v>44515</v>
       </c>
       <c r="G27" s="92" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="H27" s="93">
         <v>12509</v>
@@ -10400,10 +10614,10 @@
         <v>1500.0824451739593</v>
       </c>
       <c r="J27" s="124" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="K27" s="92" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -10414,7 +10628,7 @@
         <v>631</v>
       </c>
       <c r="C28" s="92" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="D28" s="93">
         <v>168552.5</v>
@@ -10426,7 +10640,7 @@
         <v>44498</v>
       </c>
       <c r="G28" s="92" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="H28" s="93">
         <v>11378</v>
@@ -10435,10 +10649,10 @@
         <v>675.04190089141366</v>
       </c>
       <c r="J28" s="124" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="K28" s="92" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -10446,10 +10660,10 @@
         <v>260</v>
       </c>
       <c r="B29" s="92" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="C29" s="92" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="D29" s="93">
         <v>157035.94</v>
@@ -10461,7 +10675,7 @@
         <v>44328</v>
       </c>
       <c r="G29" s="92" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="H29" s="94">
         <v>9893</v>
@@ -10473,7 +10687,7 @@
         <v>449</v>
       </c>
       <c r="K29" s="92" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -10484,19 +10698,19 @@
         <v>501</v>
       </c>
       <c r="C30" s="125" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="D30" s="125" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="E30" s="125" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="F30" s="126">
         <v>44390</v>
       </c>
       <c r="G30" s="125" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="H30" s="125">
         <v>8933</v>
@@ -10508,7 +10722,7 @@
         <v>449</v>
       </c>
       <c r="K30" s="125" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -10516,10 +10730,10 @@
         <v>294</v>
       </c>
       <c r="B31" s="104" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="C31" s="104" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="D31" s="104">
         <v>176920</v>
@@ -10531,7 +10745,7 @@
         <v>44280</v>
       </c>
       <c r="G31" s="104" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="H31" s="106">
         <v>8917</v>
@@ -10543,7 +10757,7 @@
         <v>449</v>
       </c>
       <c r="K31" s="104" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -10551,10 +10765,10 @@
         <v>238</v>
       </c>
       <c r="B32" s="92" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="C32" s="92" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="D32" s="93">
         <v>84838</v>
@@ -10566,7 +10780,7 @@
         <v>44218</v>
       </c>
       <c r="G32" s="92" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="H32" s="94">
         <v>8863</v>
@@ -10578,7 +10792,7 @@
         <v>449</v>
       </c>
       <c r="K32" s="92" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -10586,22 +10800,22 @@
         <v>238</v>
       </c>
       <c r="B33" s="125" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="C33" s="125" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="D33" s="125" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="E33" s="125" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="F33" s="126">
         <v>44420</v>
       </c>
       <c r="G33" s="125" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="H33" s="125">
         <v>8516</v>
@@ -10614,7 +10828,7 @@
         <v>449</v>
       </c>
       <c r="K33" s="125" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -10625,7 +10839,7 @@
         <v>234</v>
       </c>
       <c r="C34" s="92" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="D34" s="93">
         <v>206098</v>
@@ -10637,7 +10851,7 @@
         <v>44529</v>
       </c>
       <c r="G34" s="92" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="H34" s="93">
         <v>24279</v>
@@ -10646,10 +10860,10 @@
         <v>1178.0318101097537</v>
       </c>
       <c r="J34" s="124" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="K34" s="92" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -10657,10 +10871,10 @@
         <v>238</v>
       </c>
       <c r="B35" s="92" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="D35" s="93">
         <v>391338</v>
@@ -10672,7 +10886,7 @@
         <v>44484</v>
       </c>
       <c r="G35" s="92" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
       <c r="H35" s="93">
         <v>24200</v>
@@ -10681,21 +10895,21 @@
         <v>618.391262795844</v>
       </c>
       <c r="J35" s="124" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="K35" s="92" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="92" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="B36" s="92" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="C36" s="92" t="s">
-        <v>1076</v>
+        <v>1063</v>
       </c>
       <c r="D36" s="92">
         <v>593218.22</v>
@@ -10707,7 +10921,7 @@
         <v>44258</v>
       </c>
       <c r="G36" s="92" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
       <c r="H36" s="94">
         <v>21953</v>
@@ -10719,7 +10933,7 @@
         <v>449</v>
       </c>
       <c r="K36" s="92" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -10727,10 +10941,10 @@
         <v>294</v>
       </c>
       <c r="B37" s="104" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="C37" s="104" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="D37" s="104">
         <v>400000</v>
@@ -10742,7 +10956,7 @@
         <v>44404</v>
       </c>
       <c r="G37" s="104" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="H37" s="106">
         <v>21280</v>
@@ -10754,7 +10968,7 @@
         <v>449</v>
       </c>
       <c r="K37" s="104" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -10765,19 +10979,19 @@
         <v>643</v>
       </c>
       <c r="C38" s="125" t="s">
-        <v>1080</v>
+        <v>1067</v>
       </c>
       <c r="D38" s="125" t="s">
-        <v>1081</v>
+        <v>1068</v>
       </c>
       <c r="E38" s="125" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="F38" s="126">
         <v>44372</v>
       </c>
       <c r="G38" s="125" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
       <c r="H38" s="125">
         <v>21251</v>
@@ -10789,7 +11003,7 @@
         <v>449</v>
       </c>
       <c r="K38" s="125" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -10800,19 +11014,19 @@
         <v>501</v>
       </c>
       <c r="C39" s="125" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
       <c r="D39" s="125" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="E39" s="125" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="F39" s="126">
         <v>44375</v>
       </c>
       <c r="G39" s="125" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="H39" s="125">
         <v>11871</v>
@@ -10825,7 +11039,7 @@
         <v>449</v>
       </c>
       <c r="K39" s="125" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -10836,7 +11050,7 @@
         <v>234</v>
       </c>
       <c r="C40" s="104" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
       <c r="D40" s="104">
         <v>77250</v>
@@ -10848,7 +11062,7 @@
         <v>44326</v>
       </c>
       <c r="G40" s="104" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="H40" s="106">
         <v>10508</v>
@@ -10860,7 +11074,7 @@
         <v>449</v>
       </c>
       <c r="K40" s="104" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -10871,7 +11085,7 @@
         <v>378</v>
       </c>
       <c r="C41" s="92" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="D41" s="93">
         <v>184133.4</v>
@@ -10883,7 +11097,7 @@
         <v>44209</v>
       </c>
       <c r="G41" s="92" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="H41" s="94">
         <v>9496</v>
@@ -10895,7 +11109,7 @@
         <v>449</v>
       </c>
       <c r="K41" s="92" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -10979,7 +11193,7 @@
         <v>555</v>
       </c>
       <c r="C3" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -11066,7 +11280,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -11306,7 +11520,7 @@
         <v>612</v>
       </c>
       <c r="H8" s="113" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="I8" s="113" t="s">
         <v>603</v>
@@ -11317,25 +11531,25 @@
         <v>555</v>
       </c>
       <c r="B9" s="111" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="C9" s="114" t="s">
         <v>238</v>
       </c>
       <c r="D9" s="114" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="E9" s="111" t="s">
         <v>574</v>
       </c>
       <c r="F9" s="111" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="G9" s="111" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="H9" s="115" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="I9" s="115" t="s">
         <v>601</v>
@@ -11346,28 +11560,28 @@
         <v>555</v>
       </c>
       <c r="B10" s="111" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="C10" s="114" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="D10" s="114" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="E10" s="111" t="s">
         <v>574</v>
       </c>
       <c r="F10" s="111" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="G10" s="111" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="H10" s="115" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="I10" s="115" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -11375,28 +11589,28 @@
         <v>555</v>
       </c>
       <c r="B11" s="111" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="C11" s="114" t="s">
         <v>231</v>
       </c>
       <c r="D11" s="114" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="E11" s="111" t="s">
         <v>574</v>
       </c>
       <c r="F11" s="111" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="G11" s="111" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="H11" s="115" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="I11" s="115" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -11767,7 +11981,7 @@
         <v>655</v>
       </c>
       <c r="G24" s="111" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="H24" s="113">
         <v>44503</v>
@@ -11834,7 +12048,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" s="111" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="111" t="s">
         <v>564</v>
       </c>
@@ -11863,7 +12077,7 @@
         <v>46022</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" s="111" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="111" t="s">
         <v>564</v>
       </c>
@@ -11883,7 +12097,7 @@
         <v>669</v>
       </c>
       <c r="G28" s="111" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="H28" s="113">
         <v>44458</v>
@@ -11892,7 +12106,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" s="111" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="111" t="s">
         <v>564</v>
       </c>
@@ -11900,10 +12114,10 @@
         <v>670</v>
       </c>
       <c r="C29" s="111" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D29" s="111" t="s">
-        <v>597</v>
+        <v>971</v>
       </c>
       <c r="E29" s="111" t="s">
         <v>574</v>
@@ -11915,47 +12129,47 @@
         <v>672</v>
       </c>
       <c r="H29" s="113">
-        <v>44371</v>
-      </c>
-      <c r="I29" s="113" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+        <v>44358</v>
+      </c>
+      <c r="I29" s="113">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="111" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="111" t="s">
         <v>564</v>
       </c>
       <c r="B30" s="111" t="s">
-        <v>673</v>
+        <v>1085</v>
       </c>
       <c r="C30" s="111" t="s">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="D30" s="111" t="s">
-        <v>984</v>
+        <v>1080</v>
       </c>
       <c r="E30" s="111" t="s">
         <v>574</v>
       </c>
       <c r="F30" s="111" t="s">
-        <v>674</v>
+        <v>1081</v>
       </c>
       <c r="G30" s="111" t="s">
-        <v>675</v>
-      </c>
-      <c r="H30" s="113">
-        <v>44358</v>
-      </c>
-      <c r="I30" s="113">
-        <v>45454</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1082</v>
+      </c>
+      <c r="H30" s="113" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I30" s="113" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="111" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="111" t="s">
         <v>564</v>
       </c>
       <c r="B31" s="111" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="C31" s="114" t="s">
         <v>293</v>
@@ -11967,16 +12181,16 @@
         <v>574</v>
       </c>
       <c r="F31" s="111" t="s">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="G31" s="111" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="H31" s="115" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="I31" s="115" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -11984,28 +12198,28 @@
         <v>560</v>
       </c>
       <c r="B32" s="111" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C32" s="111" t="s">
         <v>231</v>
       </c>
       <c r="D32" s="111" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E32" s="111" t="s">
         <v>574</v>
       </c>
       <c r="F32" s="111" t="s">
+        <v>675</v>
+      </c>
+      <c r="G32" s="111" t="s">
+        <v>676</v>
+      </c>
+      <c r="H32" s="115" t="s">
+        <v>677</v>
+      </c>
+      <c r="I32" s="115" t="s">
         <v>678</v>
-      </c>
-      <c r="G32" s="111" t="s">
-        <v>679</v>
-      </c>
-      <c r="H32" s="115" t="s">
-        <v>680</v>
-      </c>
-      <c r="I32" s="115" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -12013,25 +12227,25 @@
         <v>560</v>
       </c>
       <c r="B33" s="111" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C33" s="111" t="s">
         <v>238</v>
       </c>
       <c r="D33" s="111" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E33" s="111" t="s">
         <v>574</v>
       </c>
       <c r="F33" s="111" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G33" s="111" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="H33" s="115" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="I33" s="115" t="s">
         <v>578</v>
@@ -12042,28 +12256,28 @@
         <v>560</v>
       </c>
       <c r="B34" s="111" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="C34" s="114" t="s">
         <v>236</v>
       </c>
       <c r="D34" s="114" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="E34" s="111" t="s">
         <v>602</v>
       </c>
       <c r="F34" s="111" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="G34" s="111" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="H34" s="115" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="I34" s="115" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -12071,28 +12285,28 @@
         <v>560</v>
       </c>
       <c r="B35" s="111" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="C35" s="114" t="s">
         <v>236</v>
       </c>
       <c r="D35" s="114" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="E35" s="111" t="s">
         <v>574</v>
       </c>
       <c r="F35" s="111" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="G35" s="111" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="H35" s="115" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="I35" s="115" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -12100,28 +12314,28 @@
         <v>560</v>
       </c>
       <c r="B36" s="111" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="C36" s="114" t="s">
         <v>531</v>
       </c>
       <c r="D36" s="114" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="E36" s="111" t="s">
         <v>574</v>
       </c>
       <c r="F36" s="111" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="G36" s="111" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="H36" s="115" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="I36" s="115" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -12138,10 +12352,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -12153,194 +12367,184 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25.2" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
+        <v>683</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>684</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>685</v>
+      </c>
+      <c r="D1" s="51" t="s">
         <v>686</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="E1" s="51" t="s">
         <v>687</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="F1" s="51" t="s">
         <v>688</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="G1" s="51" t="s">
         <v>689</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="H1" s="52" t="s">
         <v>690</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="I1" s="52" t="s">
         <v>691</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="J1" s="51" t="s">
         <v>692</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="K1" s="51" t="s">
         <v>693</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="L1" s="51" t="s">
         <v>694</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="M1" s="51" t="s">
         <v>695</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="N1" s="53" t="s">
         <v>696</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="O1" s="54" t="s">
         <v>697</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>698</v>
-      </c>
-      <c r="N1" s="53" t="s">
-        <v>699</v>
-      </c>
-      <c r="O1" s="54" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="25.2" x14ac:dyDescent="0.35">
       <c r="A2" s="55">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
-        <v>743</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>749</v>
+      <c r="B2" s="62" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>1132</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>701</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>702</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="67">
-        <v>44641</v>
+        <v>1112</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>699</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>706</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>1113</v>
       </c>
       <c r="H2" s="59"/>
       <c r="I2" s="59"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="56" t="s">
-        <v>703</v>
-      </c>
-      <c r="M2" s="57"/>
-      <c r="N2" s="60" t="s">
-        <v>704</v>
-      </c>
-      <c r="O2" s="61" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.35">
+      <c r="K2" s="63" t="s">
+        <v>1114</v>
+      </c>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="61"/>
+    </row>
+    <row r="3" spans="1:15" ht="50.4" x14ac:dyDescent="0.35">
       <c r="A3" s="55">
         <v>2</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>744</v>
+        <v>1142</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>735</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>705</v>
+        <v>1133</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>1108</v>
       </c>
       <c r="E3" s="64" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="F3" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="67">
-        <v>44641</v>
+        <v>1100</v>
+      </c>
+      <c r="G3" s="67" t="s">
+        <v>1109</v>
       </c>
       <c r="H3" s="59"/>
       <c r="I3" s="59"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="62" t="s">
-        <v>22</v>
+      <c r="K3" s="63" t="s">
+        <v>1102</v>
       </c>
       <c r="L3" s="62" t="s">
-        <v>706</v>
-      </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="60" t="s">
-        <v>704</v>
-      </c>
+        <v>1110</v>
+      </c>
+      <c r="M3" s="62" t="s">
+        <v>1111</v>
+      </c>
+      <c r="N3" s="60"/>
       <c r="O3" s="61"/>
     </row>
-    <row r="4" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="50.4" x14ac:dyDescent="0.35">
       <c r="A4" s="55">
         <v>3</v>
       </c>
-      <c r="B4" s="56" t="s">
-        <v>707</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>736</v>
+      <c r="B4" s="62" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>1134</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>708</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>702</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>709</v>
-      </c>
-      <c r="G4" s="67">
-        <v>44641</v>
+        <v>1105</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>712</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>713</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>1106</v>
       </c>
       <c r="H4" s="59"/>
       <c r="I4" s="59"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="56" t="s">
-        <v>710</v>
-      </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="65" t="s">
-        <v>711</v>
-      </c>
+      <c r="K4" s="63" t="s">
+        <v>1107</v>
+      </c>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="60"/>
       <c r="O4" s="61"/>
     </row>
-    <row r="5" spans="1:15" ht="50.4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.35">
       <c r="A5" s="55">
         <v>4</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="62" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E5" s="64" t="s">
         <v>712</v>
       </c>
-      <c r="C5" s="57" t="s">
-        <v>713</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>714</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>715</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>716</v>
-      </c>
-      <c r="G5" s="67">
-        <v>44641</v>
+      <c r="F5" s="64" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>1101</v>
       </c>
       <c r="H5" s="59"/>
       <c r="I5" s="59"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="62" t="s">
-        <v>717</v>
+      <c r="K5" s="63" t="s">
+        <v>1102</v>
       </c>
       <c r="L5" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="63"/>
+        <v>1103</v>
+      </c>
+      <c r="M5" s="62" t="s">
+        <v>1104</v>
+      </c>
       <c r="N5" s="60"/>
       <c r="O5" s="61"/>
     </row>
@@ -12349,146 +12553,144 @@
         <v>5</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>745</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>750</v>
-      </c>
-      <c r="D6" s="63" t="s">
-        <v>718</v>
+        <v>1145</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>1095</v>
       </c>
       <c r="E6" s="64" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F6" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="67">
-        <v>44641</v>
+      <c r="G6" s="67" t="s">
+        <v>1096</v>
       </c>
       <c r="H6" s="59"/>
       <c r="I6" s="59"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="62" t="s">
-        <v>15</v>
+      <c r="K6" s="63" t="s">
+        <v>1097</v>
       </c>
       <c r="L6" s="62" t="s">
-        <v>719</v>
-      </c>
-      <c r="M6" s="63"/>
+        <v>1098</v>
+      </c>
+      <c r="M6" s="62"/>
       <c r="N6" s="60"/>
-      <c r="O6" s="61" t="s">
-        <v>704</v>
-      </c>
+      <c r="O6" s="61"/>
     </row>
     <row r="7" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.35">
       <c r="A7" s="55">
         <v>6</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="62" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>712</v>
+      </c>
+      <c r="F7" s="64" t="s">
         <v>720</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>737</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>721</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>702</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>709</v>
-      </c>
-      <c r="G7" s="67">
-        <v>44641</v>
+      <c r="G7" s="67" t="s">
+        <v>1117</v>
       </c>
       <c r="H7" s="59"/>
       <c r="I7" s="59"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="56" t="s">
+      <c r="K7" s="63" t="s">
+        <v>721</v>
+      </c>
+      <c r="L7" s="62" t="s">
         <v>722</v>
       </c>
-      <c r="L7" s="56"/>
-      <c r="M7" s="57"/>
+      <c r="M7" s="62" t="s">
+        <v>77</v>
+      </c>
       <c r="N7" s="60" t="s">
-        <v>704</v>
+        <v>1118</v>
       </c>
       <c r="O7" s="61"/>
     </row>
-    <row r="8" spans="1:15" ht="39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.35">
       <c r="A8" s="55">
         <v>7</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>751</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>738</v>
+        <v>1146</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>1138</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>758</v>
+        <v>1119</v>
       </c>
       <c r="E8" s="64" t="s">
-        <v>715</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>723</v>
-      </c>
-      <c r="G8" s="67">
-        <v>44641</v>
+        <v>712</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>1120</v>
       </c>
       <c r="H8" s="59"/>
       <c r="I8" s="59"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="62" t="s">
-        <v>724</v>
+      <c r="K8" s="63" t="s">
+        <v>1121</v>
       </c>
       <c r="L8" s="62" t="s">
-        <v>725</v>
+        <v>1122</v>
       </c>
       <c r="M8" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="N8" s="65" t="s">
-        <v>726</v>
+        <v>1123</v>
+      </c>
+      <c r="N8" s="60" t="s">
+        <v>1124</v>
       </c>
       <c r="O8" s="61"/>
     </row>
-    <row r="9" spans="1:15" ht="25.2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.35">
       <c r="A9" s="55">
         <v>8</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>746</v>
+        <v>1147</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>739</v>
-      </c>
-      <c r="D9" s="63" t="s">
-        <v>759</v>
+        <v>1139</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>1125</v>
       </c>
       <c r="E9" s="64" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>723</v>
-      </c>
-      <c r="G9" s="67">
-        <v>44641</v>
+        <v>2</v>
+      </c>
+      <c r="G9" s="67" t="s">
+        <v>1126</v>
       </c>
       <c r="H9" s="59"/>
       <c r="I9" s="59"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="62" t="s">
-        <v>727</v>
+      <c r="K9" s="63" t="s">
+        <v>1127</v>
       </c>
       <c r="L9" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="63"/>
+        <v>58</v>
+      </c>
+      <c r="M9" s="62"/>
       <c r="N9" s="60" t="s">
-        <v>704</v>
+        <v>1124</v>
       </c>
       <c r="O9" s="61"/>
     </row>
@@ -12497,90 +12699,91 @@
         <v>9</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>747</v>
+        <v>1131</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>740</v>
-      </c>
-      <c r="D10" s="122" t="s">
-        <v>1031</v>
+        <v>1140</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>1128</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>715</v>
-      </c>
-      <c r="F10" s="66" t="s">
-        <v>723</v>
-      </c>
-      <c r="G10" s="67">
-        <v>44641</v>
+        <v>699</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>706</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>1129</v>
       </c>
       <c r="H10" s="59"/>
       <c r="I10" s="59"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="62" t="s">
-        <v>724</v>
-      </c>
-      <c r="L10" s="62" t="s">
-        <v>728</v>
-      </c>
-      <c r="M10" s="63"/>
-      <c r="N10" s="60"/>
+      <c r="K10" s="63" t="s">
+        <v>1130</v>
+      </c>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="60" t="s">
+        <v>1124</v>
+      </c>
       <c r="O10" s="61"/>
     </row>
     <row r="11" spans="1:15" ht="25.2" x14ac:dyDescent="0.35">
       <c r="A11" s="55">
         <v>10</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>752</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>741</v>
+      <c r="B11" s="56" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>740</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>760</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>715</v>
-      </c>
-      <c r="F11" s="64" t="s">
-        <v>723</v>
+        <v>698</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>699</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>2</v>
       </c>
       <c r="G11" s="67">
         <v>44641</v>
       </c>
       <c r="H11" s="59"/>
       <c r="I11" s="59"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="62" t="s">
-        <v>727</v>
-      </c>
-      <c r="L11" s="62" t="s">
-        <v>725</v>
-      </c>
-      <c r="M11" s="63"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>700</v>
+      </c>
+      <c r="M11" s="57"/>
       <c r="N11" s="60" t="s">
-        <v>704</v>
-      </c>
-      <c r="O11" s="61"/>
+        <v>701</v>
+      </c>
+      <c r="O11" s="61" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.35">
       <c r="A12" s="55">
         <v>11</v>
       </c>
-      <c r="B12" s="56" t="s">
-        <v>748</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>729</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>730</v>
-      </c>
-      <c r="E12" s="58" t="s">
+      <c r="B12" s="62" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>732</v>
+      </c>
+      <c r="D12" s="63" t="s">
         <v>702</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="E12" s="64" t="s">
+        <v>699</v>
+      </c>
+      <c r="F12" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="67">
@@ -12588,64 +12791,400 @@
       </c>
       <c r="H12" s="59"/>
       <c r="I12" s="59"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="56" t="s">
-        <v>731</v>
-      </c>
-      <c r="L12" s="56" t="s">
-        <v>73</v>
+      <c r="J12" s="63"/>
+      <c r="K12" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="62" t="s">
+        <v>703</v>
       </c>
       <c r="M12" s="63"/>
-      <c r="N12" s="60"/>
+      <c r="N12" s="60" t="s">
+        <v>701</v>
+      </c>
       <c r="O12" s="61"/>
     </row>
     <row r="13" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.35">
       <c r="A13" s="55">
         <v>12</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>753</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>742</v>
+      <c r="B13" s="56" t="s">
+        <v>704</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>733</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>732</v>
-      </c>
-      <c r="E13" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="64" t="s">
-        <v>733</v>
+        <v>705</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>699</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>706</v>
       </c>
       <c r="G13" s="67">
         <v>44641</v>
       </c>
       <c r="H13" s="59"/>
       <c r="I13" s="59"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="62" t="s">
+      <c r="J13" s="57"/>
+      <c r="K13" s="56" t="s">
+        <v>707</v>
+      </c>
+      <c r="L13" s="56"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="65" t="s">
+        <v>708</v>
+      </c>
+      <c r="O13" s="61"/>
+    </row>
+    <row r="14" spans="1:15" ht="50.4" x14ac:dyDescent="0.35">
+      <c r="A14" s="55">
+        <v>13</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>709</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>710</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>711</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>712</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>713</v>
+      </c>
+      <c r="G14" s="67">
+        <v>44641</v>
+      </c>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="62" t="s">
+        <v>714</v>
+      </c>
+      <c r="L14" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="63"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="61"/>
+    </row>
+    <row r="15" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A15" s="55">
+        <v>14</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>741</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>715</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>699</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="67">
+        <v>44641</v>
+      </c>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="62" t="s">
+        <v>716</v>
+      </c>
+      <c r="M15" s="63"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="61" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A16" s="55">
+        <v>15</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>717</v>
+      </c>
+      <c r="C16" s="57" t="s">
         <v>734</v>
       </c>
-      <c r="L13" s="62"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="60" t="s">
-        <v>704</v>
-      </c>
-      <c r="O13" s="61"/>
+      <c r="D16" s="57" t="s">
+        <v>718</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>699</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>706</v>
+      </c>
+      <c r="G16" s="67">
+        <v>44641</v>
+      </c>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="56" t="s">
+        <v>719</v>
+      </c>
+      <c r="L16" s="56"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="60" t="s">
+        <v>701</v>
+      </c>
+      <c r="O16" s="61"/>
+    </row>
+    <row r="17" spans="1:15" ht="39" x14ac:dyDescent="0.35">
+      <c r="A17" s="55">
+        <v>16</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>735</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>746</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>712</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>720</v>
+      </c>
+      <c r="G17" s="67">
+        <v>44641</v>
+      </c>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="62" t="s">
+        <v>721</v>
+      </c>
+      <c r="L17" s="62" t="s">
+        <v>722</v>
+      </c>
+      <c r="M17" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="65" t="s">
+        <v>723</v>
+      </c>
+      <c r="O17" s="61"/>
+    </row>
+    <row r="18" spans="1:15" ht="25.2" x14ac:dyDescent="0.35">
+      <c r="A18" s="55">
+        <v>17</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>736</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>747</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>712</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>720</v>
+      </c>
+      <c r="G18" s="67">
+        <v>44641</v>
+      </c>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="62" t="s">
+        <v>724</v>
+      </c>
+      <c r="L18" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="63"/>
+      <c r="N18" s="60" t="s">
+        <v>701</v>
+      </c>
+      <c r="O18" s="61"/>
+    </row>
+    <row r="19" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A19" s="55">
+        <v>18</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>737</v>
+      </c>
+      <c r="D19" s="122" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>712</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>720</v>
+      </c>
+      <c r="G19" s="67">
+        <v>44641</v>
+      </c>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="62" t="s">
+        <v>721</v>
+      </c>
+      <c r="L19" s="62" t="s">
+        <v>725</v>
+      </c>
+      <c r="M19" s="63"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
+    </row>
+    <row r="20" spans="1:15" ht="25.2" x14ac:dyDescent="0.35">
+      <c r="A20" s="55">
+        <v>19</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>738</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>748</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>712</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>720</v>
+      </c>
+      <c r="G20" s="67">
+        <v>44641</v>
+      </c>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="62" t="s">
+        <v>724</v>
+      </c>
+      <c r="L20" s="62" t="s">
+        <v>722</v>
+      </c>
+      <c r="M20" s="63"/>
+      <c r="N20" s="60" t="s">
+        <v>701</v>
+      </c>
+      <c r="O20" s="61"/>
+    </row>
+    <row r="21" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A21" s="55">
+        <v>20</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>726</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>727</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>699</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="67">
+        <v>44641</v>
+      </c>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="56" t="s">
+        <v>728</v>
+      </c>
+      <c r="L21" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="63"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="61"/>
+    </row>
+    <row r="22" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A22" s="55">
+        <v>21</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>739</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>729</v>
+      </c>
+      <c r="E22" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="64" t="s">
+        <v>730</v>
+      </c>
+      <c r="G22" s="67">
+        <v>44641</v>
+      </c>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="62" t="s">
+        <v>731</v>
+      </c>
+      <c r="L22" s="62"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="60" t="s">
+        <v>701</v>
+      </c>
+      <c r="O22" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="C9:C11 C2:C7">
+  <conditionalFormatting sqref="C18:C20 C11:C16">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+  <conditionalFormatting sqref="C6">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="C2:C5">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+  <conditionalFormatting sqref="C7:C10">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12998,7 +13537,7 @@
         <v>42</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -13484,7 +14023,7 @@
         <v>2020</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -13510,7 +14049,7 @@
         <v>2020</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -13536,7 +14075,7 @@
         <v>2020</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -13562,7 +14101,7 @@
         <v>2020</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -13588,7 +14127,7 @@
         <v>2020</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -14284,7 +14823,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="68" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="B57" t="s">
         <v>43</v>
@@ -14650,7 +15189,7 @@
         <v>2020</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
@@ -14676,7 +15215,7 @@
         <v>2020</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
@@ -14702,7 +15241,7 @@
         <v>2020</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -14713,7 +15252,7 @@
         <v>46</v>
       </c>
       <c r="C75" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="D75" t="s">
         <v>548</v>
@@ -14728,7 +15267,7 @@
         <v>2020</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
@@ -14754,12 +15293,12 @@
         <v>2020</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="68" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="B77" t="s">
         <v>43</v>
@@ -14780,7 +15319,7 @@
         <v>2020</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
@@ -14806,7 +15345,7 @@
         <v>2020</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
@@ -14832,7 +15371,7 @@
         <v>2020</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
@@ -14858,7 +15397,7 @@
         <v>2020</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
@@ -14884,7 +15423,7 @@
         <v>2020</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
@@ -14895,10 +15434,10 @@
         <v>43</v>
       </c>
       <c r="C82" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="D82" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="E82" s="17">
         <v>12.5</v>
@@ -14941,7 +15480,7 @@
         <v>45</v>
       </c>
       <c r="C84" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="D84" t="s">
         <v>214</v>
@@ -14964,7 +15503,7 @@
         <v>46</v>
       </c>
       <c r="C85" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="D85" t="s">
         <v>214</v>
@@ -15010,10 +15549,10 @@
         <v>43</v>
       </c>
       <c r="C87" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="D87" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="E87" s="17">
         <v>78.3</v>
@@ -16325,7 +16864,7 @@
         <v>271</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="D34" s="79">
         <v>72.7</v>
@@ -16346,13 +16885,13 @@
         <v>112</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="D35" s="75">
         <v>421</v>
       </c>
       <c r="E35" s="75" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="F35" s="75">
         <v>2019</v>
@@ -16430,7 +16969,7 @@
         <v>244</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="D39" s="69">
         <v>87000</v>
@@ -16514,7 +17053,7 @@
         <v>44</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="D43" s="39">
         <v>6.36</v>
@@ -16619,7 +17158,7 @@
         <v>44</v>
       </c>
       <c r="C48" s="75" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="D48" s="76">
         <v>74258</v>
@@ -16787,13 +17326,13 @@
         <v>246</v>
       </c>
       <c r="C56" s="75" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="D56" s="81">
         <v>49</v>
       </c>
       <c r="E56" s="75" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="F56" s="75">
         <v>2020</v>
@@ -16913,7 +17452,7 @@
         <v>43</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="D62">
         <v>72</v>
@@ -17099,7 +17638,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="C71" s="75" t="s">
         <v>243</v>
@@ -17391,7 +17930,7 @@
         <v>68</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="C85" s="39" t="s">
         <v>268</v>
@@ -17415,13 +17954,13 @@
         <v>270</v>
       </c>
       <c r="C86" s="39" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="D86" s="78">
         <v>716</v>
       </c>
       <c r="E86" s="39" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="F86" s="39">
         <v>2019</v>
@@ -17478,13 +18017,13 @@
         <v>47</v>
       </c>
       <c r="C89" s="39" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="D89" s="84">
         <v>2371</v>
       </c>
       <c r="E89" s="39" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="F89" s="39">
         <v>2021</v>
@@ -17520,7 +18059,7 @@
         <v>246</v>
       </c>
       <c r="C91" s="75" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="D91" s="83">
         <v>26</v>
@@ -18427,13 +18966,13 @@
         <v>291</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>292</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -18513,7 +19052,7 @@
         <v>295</v>
       </c>
       <c r="C5" s="116" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="D5" s="116">
         <v>53</v>
@@ -18536,7 +19075,7 @@
         <v>532</v>
       </c>
       <c r="C6" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="D6">
         <v>53</v>
